--- a/output/2005_tax_rates_by_CEX_states.xlsx
+++ b/output/2005_tax_rates_by_CEX_states.xlsx
@@ -1989,7 +1989,7 @@
         <v>66</v>
       </c>
       <c r="C10">
-        <v>3.1621660647961063</v>
+        <v>6.843478434330044</v>
       </c>
       <c r="D10">
         <v>0.0</v>
@@ -2007,13 +2007,13 @@
         <v>0.0</v>
       </c>
       <c r="I10">
-        <v>5.165475366205847</v>
+        <v>2.080435302990134</v>
       </c>
       <c r="J10">
         <v>0.0</v>
       </c>
       <c r="K10">
-        <v>6.688177014293031</v>
+        <v>0.0</v>
       </c>
       <c r="L10">
         <v>3.6094968739623843</v>
@@ -2028,40 +2028,40 @@
         <v>6.886437835736954</v>
       </c>
       <c r="P10">
-        <v>0.0</v>
+        <v>3.919564697009866</v>
       </c>
       <c r="Q10">
         <v>3.880369050039767</v>
       </c>
       <c r="R10">
-        <v>6.950000190734864</v>
+        <v>2.4098376254321625</v>
       </c>
       <c r="S10">
-        <v>5.999999999999999</v>
+        <v>2.080435302990134</v>
       </c>
       <c r="T10">
-        <v>7.674190254587385</v>
+        <v>2.2295331663710933</v>
       </c>
       <c r="U10">
-        <v>3.2663039141748884</v>
+        <v>1.8789429385525764</v>
       </c>
       <c r="V10">
-        <v>2.570866719346428</v>
+        <v>0.0</v>
       </c>
       <c r="W10">
-        <v>4.304562805171539</v>
+        <v>1.7336960858251116</v>
       </c>
       <c r="X10">
-        <v>5.165475366205847</v>
+        <v>4.137128678467276</v>
       </c>
       <c r="Y10">
-        <v>6.839999999999999</v>
+        <v>5.888641917474665</v>
       </c>
       <c r="Z10">
-        <v>6.999999999999999</v>
+        <v>2.4271745201551562</v>
       </c>
       <c r="AA10">
-        <v>4.687146054541161</v>
+        <v>0.0</v>
       </c>
       <c r="AB10">
         <v>0.17452767103119346</v>
@@ -2085,7 +2085,7 @@
         <v>0.0</v>
       </c>
       <c r="AI10">
-        <v>5.418937729373095</v>
+        <v>5.631627857610814</v>
       </c>
       <c r="AJ10">
         <v>0.3253112524484506</v>
@@ -2094,16 +2094,16 @@
         <v>2.7611148976476856</v>
       </c>
       <c r="AL10">
-        <v>7.266102015129558</v>
+        <v>2.9264789928727883</v>
       </c>
       <c r="AM10">
         <v>0.0</v>
       </c>
       <c r="AN10">
-        <v>5.354876129633395</v>
+        <v>2.1567179307664386</v>
       </c>
       <c r="AO10">
-        <v>6.999999999999999</v>
+        <v>2.4271745201551562</v>
       </c>
       <c r="AP10">
         <v>0.0</v>
@@ -2112,19 +2112,19 @@
         <v>4.7522373369093796</v>
       </c>
       <c r="AR10">
-        <v>5.747521974924777</v>
+        <v>4.571628834190022</v>
       </c>
       <c r="AS10">
-        <v>6.362143826043535</v>
+        <v>2.7837161109981436</v>
       </c>
       <c r="AT10">
-        <v>0.0</v>
+        <v>1.3677010946922996</v>
       </c>
       <c r="AU10">
-        <v>5.165475366205847</v>
+        <v>2.080435302990134</v>
       </c>
       <c r="AV10">
-        <v>0.14973836004643368</v>
+        <v>0.0</v>
       </c>
       <c r="AW10">
         <v>7.3010643585381105</v>
@@ -2133,13 +2133,13 @@
         <v>3.4816497087598544</v>
       </c>
       <c r="AY10">
-        <v>4.666146080805949</v>
+        <v>4.503829698515615</v>
       </c>
       <c r="AZ10">
         <v>2.766252590016756</v>
       </c>
       <c r="BA10">
-        <v>6.551166504938084</v>
+        <v>8.481848004303611</v>
       </c>
     </row>
     <row r="11" spans="1:53">
